--- a/AmazonCrawler/data/googlelistingresult.xlsx
+++ b/AmazonCrawler/data/googlelistingresult.xlsx
@@ -22,7 +22,596 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="196">
+  <si>
+    <t>B00NO8RSGO</t>
+  </si>
+  <si>
+    <t>Toy Doll Clothes - Bunny Slippers</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=DebNo20ezbAqmD2IUDmQ79UiQKpEnHzLrfXq1EXv0s3ucBbow_GcaW16EaY6DhHQ4STpwNJ7b9xyxfgXJjSnrcpYEgfFewmCNCL7BuhvAaO</t>
+  </si>
+  <si>
+    <t>B0083JU636</t>
+  </si>
+  <si>
+    <t>Bright Feet Lighted Slippers- Adult- Blue (MEDIUM)</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=SVxEr28Zjbxx_GPbFNtaMZPSThqoLLYTyjl5T8oZIgINXDmnFRTGVfqqQ2NNSkucfJI7OnAhwIs4Bj-rXUh2NGOx5MEhpMWyWZIemKuz4Xdnow4zjKk4P9fg8C5csf0zbNqB8lZc3KT8LPrslDD8VJWEgTMM2baylJFOTRDTW1C6d6hjCm3mySkndBC_B3XCyGrVf0hGZa-5U1PihpQeYPRRCPhHZTOQxLiSnR4MSrO</t>
+  </si>
+  <si>
+    <t>B00PQU1HJM</t>
+  </si>
+  <si>
+    <t>BOBS from Skechers Women's Cozy Slipper</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=M125VehREsmE8Kwtky0jlzPXGEDrsqNN3vQbLFmHkeAs3B81ZVIa3EKdRKVQqhIY-WJr6EYbAFxqFgmJXxwxlAIgEApjSnM5B4ynBEZ9dOK</t>
+  </si>
+  <si>
+    <t>B00H0AROP2</t>
+  </si>
+  <si>
+    <t>Adventure Time Finn And Jake Face Plush Soft &amp; Warm House Slippers (Medium)</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=6imLan2DISDKe4xzzZuqRnwh0fUZePZIA2-VLZnrAqQCyGAWAQZS6gIY06rRsA3g3m4Qq6hz7t7mnHZfsLosla</t>
+  </si>
+  <si>
+    <t>B000F70WVK</t>
+  </si>
+  <si>
+    <t>Freudian Slippers</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=b76stxW63NXxQgeRGYhBGl0zdAs1ykns7sWFYhULUwxmo7M4guhcrbfqaRM8Jakt2ntQl8ERl_QL3yb5p9ARPmECI01CvwVIYtN8NYWt-Pa</t>
+  </si>
+  <si>
+    <t>B00J1XQS9Y</t>
+  </si>
+  <si>
+    <t>Disney Frozen Anna Elsa Ballet Flats Kids Girls Shoe Size 9 Glitter Costume Slippers</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=bQA9lidW6uazIg2uLehdgFziZ8q-Qlsm348H2e2zBUW3M7CPM1LFt5HDOpI3L2lodG9HsqYKIQCBb9a_YEQWQMqtRs0BLkBM41Wvf3w9yIiT48Tr7Nv4APRfWBPrI_ZZrh2eauo-MINkK9btM3aGlVYz9oRHIcV86Mt0Dn01eJmaCxMJu-niFj2ap4d3E5CyadOriDrnVmdWNcJSYrIp_tqcwrtIEvaSZ867_If6XaYpRcPoV3Trx3s9iA_b8i_8gSr4C6Z0SLnr-auuF7LlQ4PaUbhfgiVHVugB_WL_6ZPgO3C_ioZhJqX3jm8-iGns</t>
+  </si>
+  <si>
+    <t>B004BVIP8S</t>
+  </si>
+  <si>
+    <t>Sheep Animal Feet Talking Slippers, size 3-6</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=CCOftULC45M80Ro684rwGUVnQR1GEe98A0AVxIacRchsWnMznpvcQueown7vFDgoJL_PhrFe77WKUHRmlNcF8oi7WvSxXX64Da-6Rkt7tcljfRukApReLjma3I28Dv6rMIKd2FzYfSnVPcnfv4RdFfmTizW-HKEjOx48lnwrhR1QTc4GI9-VKjdrFqpY9WF8tgO7HdSTl5Z9NtKdMLV_NXAzxuTYnr9q6pvXXX3x-_C</t>
+  </si>
+  <si>
+    <t>B0026MRQRU</t>
+  </si>
+  <si>
+    <t>Minnetonka Women's Cally Faux Fur Slipper</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=dbKiH26pB9J8L_CqgrqEXVlyq8kdIN21HDLtLHXHcuPQDUZ1zhAbCnLF9pjhWhVV</t>
+  </si>
+  <si>
+    <t>B00BRCBE8M</t>
+  </si>
+  <si>
+    <t>Minnetonka Women's Chrissy Slipper Bootie</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=oVzbi7P9pOQZuN2ws1X64HW4qG0x4Etwz9sF4k1I44ua614yBmsLAe4kG7WBHVS4y-jxO4hdGf-8Qp6vmInUDESc7o-3Cr15eq2cAyxGdpKkVn_qYgrgRZO5oE-Gevgu3H8zP3V0nbpmrQFY9Nga1Bq-wozSMUO-RioAKi0t_sipst9O2xgd_9lWYmnKOzn3MXLPXuLtF3z-iKenYfGy3a</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=4SilanAaaSMDi-Zke2U16PWlRlVw-wyhyP9D7d1JXBQkd2yRr1Si_mKS8W9dghB0xDmpcNK3Qh6lWktLYM9aDtz3zUdiHx7RIdqtzNjdYpoa8LXzrL8EtR1qPmXCQ5084NVXYXKog8HfcENgWDiFwa</t>
+  </si>
+  <si>
+    <t>B00BQWM2JI</t>
+  </si>
+  <si>
+    <t>Minnetonka Charley Bootie (Toddler/Little Kid/Big Kid)</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=GJs7xr9KsLbJ7hJ6tZukVbjCu0Nrw5SiD9TfmloCB0JlbtMnNjvdt5n_5uLFGfFWXcnDF0oDdxL2GKeVId9p-8_lQRdJ7iU5cYy1hVyRVcqtZNC0vBTYGfIfFCk2T1svZoJgE5fQ74mfTckagM4L75nmoPoPhf2Wq082kwrvIZr6kOo1xe-VB71SAClcCOCY</t>
+  </si>
+  <si>
+    <t>B06XFFJNVR</t>
+  </si>
+  <si>
+    <t>Skechers BOBS from Women's Keepsakes High Slip On Slipper</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=QpZvr4QC4P0T55tnNuJTIHBaXganzRoZnTMKPGciBIaotHmz4fJujOA6bpH2g-W8NHE6LL-A6uG7FpN53yocPaKTjrPqG1D1FEoCNsnX0fHQe-OG5aPrI45QkD958Oct</t>
+  </si>
+  <si>
+    <t>B0026MRQMU</t>
+  </si>
+  <si>
+    <t>Minnetonka Women's Hardsole Pile-Lined Slipper</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=pyJGnlWi2UeLaNT15EdCHpALXSjXcRirUipcDam7CfcEdpBneboZTLm0B3M1zo4oKv8gN-c9zsIX4QS5Jq7YSLMmkklAY7bEZB21ynarvKk_jeM7X5owDHRSkTf0kA9R9KrjCLOeTQxwCne6hxtTQkgJUxjshjOCYUk0AGe9De_2OmxiR9Njw2ONyszfvEbH6s4OzwrZns71TorFPTxt8_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=BRUsOBcfvYHdD2a7qCBhQAMN8aZEtGuJl7Xlnf25GQuhh20qfzGEFucnh_uBvF8Z06DEfxRzgnKPiu2WYtnjww49jhm9VLXRX3EcODYsjWuZaODHqMrfADJ806sXEr8I</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=OIOatZ8ybBX9yAKsESlXHD0uevIGXtlwmf-41AmsRRY6bSiFsilFwGqj0zw8aw96PL9uCiIxlIDBW9qzWRJBKH7UpbFQFDeMao1pz9v062mJCMHOf8cwbWmnqjCfab6W</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=T-kjpQPLDj5tKvs9WneAwo8eLC7pXeGrj1NCvvGL8EYkoYAuMrOJK4x1DUG6O-NsbK-nRu5FFzlXdvaDwarMpXARu_oQs9vPZ3HJvv4wvvx-8vn-qdnW29cipgkxdWMwv_MztjPgeXjjPMHE00vixN6PCjDLVzw2Moom9ovnfOnrNvyXH21ZJJ7dBob_BWN_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=74LHk7zKdBIm6MNCPhuhXwofr5euCQN8aIQJ0GArAI8WTcU1GvsvNAUDponpbeXXOoFXMdv9e8YG3kD3Pz-9GV9-56TYrgoKsXKawlfP5hSPKrSokWDM9UdHZ8G8WM3wlhMTP6KKdKc2NgtUgmtbm3a80kSAPlBrpAbpK0Db8zriRPpkECcLEn1uRZc5ZR0Rwyn83SI9Yut62Ar-wAzSSK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=H6L4kMJdY9iw7NIGgDPKPqQ00ElO7wpBc0lAhJJ-IsBDkbnLMx8osqyOkKUsxDCSUclJXdY-MyRNOMOssVZqZeCgjFqHuRWpOExglLNSxnvWjbcO3QUVCpCAAwKU9G9ftzxWDMZEztmoXYFCtGJZdomW4tGMS7OLmh13pa9mZpI-E-GymBwEjI3m3dyRVSTuc3P8Gidiq8tJV90cRvFb5_</t>
+  </si>
+  <si>
+    <t>B0171INEBA</t>
+  </si>
+  <si>
+    <t>Tamarac by Slippers International 7161 Men's Camper Moccasin</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=44Frs-_gUX5wVCcxGssMlVeL_tWdElvSshu0a1LT7ToaCwy0jocZwDkKH3g2ogdJlTDW4jYEsm6gRXgc2Qk44uspQTk1yp41ENCcPfRq9tzqs_Hf2W6kVzHODyC42WbP78A_yE-Qe1ExabSWmLP8s2H-eDQlGvK4t_PqqJ0ErJ77SMckltJC9_YfRdWdJN_bViLi97As7FXOEYy1LGOTYK</t>
+  </si>
+  <si>
+    <t>B01G2MV044</t>
+  </si>
+  <si>
+    <t>BEARPAW Women's Loki II Slide Slipper</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=TAjORPavFv0Jz5eSMLxUIN4KhskD91ldg3i1cJP00oSJhuuDkiSFJV3HCWrC4gs2zd_R2itEUZSz0rNDj26W0vF-DPK1WjYBsLSxbdzqNsPGd_ogbC4Xt1pUoHE7pOjVb4NxvhfGuP9d07dnFME_HGz_uc9ifi25Yt3tDTefdSx-pHCp_NqgjrmsSRbThgvL-qhChABDvhGP10zaS3F1d_</t>
+  </si>
+  <si>
+    <t>B00BRCBE9G</t>
+  </si>
+  <si>
+    <t>Minnetonka Women's Leopard Cally Slipper Moccasin</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=lNEac8xxu1Y03Umc9VSnmPtlvjlszWoV0hshoGpuBsURLdatnFXUyaykhINaz2h47dg34fnoJgA5ZU9zVo7RGuJuWdcC7Y-CMsVSLT5tqLKMHOYUw8UO6ynwuZYOI3nm44x77L3qTKqcr3Ghnou5Cq</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=Nmx_C0qB2jarNuo0NygPZA6VvJHUiDpAIXy13SIOUE-e1pbbMYcDO56CHsMmiHWJqvsJc6j0JLOhD6dzs1lJYyUDX4T6u7yK6aShrmvyGLEdkqVtT6Mq63XI_dhSU_c2OM1Mhaqtl9gWBAN0kedawRIMoZo1OIPmB5k6sgcBtBeXQOHTdb_CNuI6UP8xpXsorbd3U8EHit5MPPjNLCHiVq</t>
+  </si>
+  <si>
+    <t>B00VSQUAUU</t>
+  </si>
+  <si>
+    <t>Partiss Child Canvas Split Sole Ballet Slippers Dance Shoes</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=h1CQhzV_r8QcsRxPnvs6ItG4JUnpUQupZMQXLHk8pZlOAkj0q2QBFK8tNZR2qm4nKbNdwlFVthGCuSktlIoZZATQ0FbIYVw39XbaTYTiaQvoQFm-VH3Kvs_kx1hg-NoKBNdrhfBA3lRSU0BlDiN1Wq</t>
+  </si>
+  <si>
+    <t>B01N2T0WRY</t>
+  </si>
+  <si>
+    <t>UGG Men's Ascot Slipper</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=_UqZi1u2r4Blqrtm0BftbSd-EldmKxJE399VUTzSIEaomup4YAIbf8DOk-eg6QNw</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=VKbgWSzgAurTLa0D8UthICXlhTsMtuwdrbf7587wvblGqkqIilTJp_dXXKmD2o3x</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=yND2zgUEIoF5LrDHfXcO3nXKoER12GEBAMpAs-XTH8B-jNwos7ClIelBdVCfHY0Z1iHCU6azgFY8DFbPI8Oxs_bjzZldsniFmOBhf0SMbWhpZ7Dg_QL7I7VuWyBHW4lOp2CupkPq3zX9qYy3SzkB3__DjM5L9n5MKys7e2B-5acwV7cO7xvk3aKAXSj38Zbj-rjmXXPiDRBwGAthuhTD0K</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=IyfrpNPlXazkc3fgBTC0Bbvn__2YzaOosJqHoVbuzYj6z8aTGyDvoiDl5-yeC-bKlvj-JGNP01BinFZ3E1E9FuoyOPi7cETldfIcJv10Y4R0GGt62LLK6zUN2el4N-Y2kCIGUJBMZC8Ur37cHrO39_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=garaiCJj9xSHtuUq_t4oqnPlEFsV0cKL7_md4pi0mGIq-waVs4-ybTSR0unZUEq7JIUa9D6noy9V0032Q4SEKRPsb4TtHyOiPdxvfETW38SheOyov6hA-Ub3V7Gyvhxw_1nx2r9VQZH9EYV_LFG546s6rDfI_b-nmtE091clbMmxHmmI2FtN2wdTDD4ewosd</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=Miljv10xwc3bDkUWCEB-k4FesYwY6IzfUZN1qiOym5kxEH5Mf9MZCwRIT7F4-43s3hNrN4V9Jjdg2EMWwmeweaMtEf3a5WLMoza_Bzj2m-t8YnJ5A2r5dYPCQU5_bfxu</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=tyVFsBuTWSVLjjtNiDcKJZUjWVQi8IRlHKRR7_ogxoEKCL8DaGDhrFr_JcWMTq2MNk0Zg7maF4ig-JFHkLeMf3aYy9R9ntKXYje1z_1ENJtJJzwZUARX6oArl096J-iwz1s_v5Gv2DKAp-AXT3jrI_DeqdBfAbmNgtUle7637KTlrnEbgOKElgSbulfwRRaS9C_Jw8-ThKHWv1tamcNIBq</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=BFFsKjXoD2QSd9FoiLRL3nPMViqm-1--dGDCa9IZFGPNQxb13YsdBLslBSfoTQtwBpbik5lky5PvlDnrbbtcKbyfvIt4Kv1LbdBD-ow1TIiyvacBgK0oobL1sYUtivkw</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=vxspBoPs7vFs_WTJGregHv6GZLE9Y-JY5HQmOAK3RmpX3ltaG_hibF5lv4GWsatvdFYCTjcGnDhS8dFh9dHOqJDQXkTt5V96fw415OwkGNW5bbBDED_0ANxjUm36hAen</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=ziryn05kxohPlUDDbAJ9cdAWzHQk2hD9Rci-x_Gd7MMvjs8ue2jMnBC8bw-B5QYU1iPXXwd9wrp3lwSm4QvxJ5rahLDWY27s0iK0rucXdmRr-xKp6YYcegqcbig6zbtkyJNSCElZj_NoiLHFzYzKxBMkhHG2KjVEBSKed07BEl_Ufvb7PMuD-JkXd80KOCFD</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=rQDhnPvuGtTxqKfCnL_NEATZqVPFCG_rmIoNML6Vpexnrz4MljZTWiwgtH8gKFNTRgvXej7vF6nLVtezpYgnOlNOXQ6jVcwoY_7XCI1eZnsZtWFXOCVOJ1wSkX4QSzPXbdIUgtdaccAsOMxEHuH2VGm5o_n7_IH1hd1egH5PYynGCy_a6ZAEIg6wIU9sImQRU5XexyW9DFjoQqd2PHzCBq</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=qBo7b1WkNN7XQkXm12ubGVCSZ78KgSNCxpBJ5lvAqHAudbRHv74DR-pt_11GAw2nRgqtSspSPEMR57DWUzw_7MMgH0B0bclUXoDzJo5TWz3uWurjTVJ4QBa3hYxVcuur8HkOJ2_1jj1V71CPDY3CKnKGPIGVGUfqMa0ZxRGdq7LY4CRgghTgngIMY866uRz1E8pxvfUqdtCsvW0EkdIkOq</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=dX-HAU6yp_woBaSSjnXGsERoCWHhYwo517Gqdgat13q-i_WlpcmKLr6fiIBHtDK-V4C0PVN2TDlMifflUx8MM_oMeRknDbjWpoFg00NN7iuweBWPVeNYEOQw6G8OUp5DQHPsFYBlK-RzOGg3KepgPJ0UsavPdiUfYnnVVY1hvU_T_Mq2rQjPf7uQmZNlaBcNVeZn6Y7-6eNvWRzdG1s-fK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=nitEQV3TVgVF9MMKJo7YA3R2FSbrRbhqrYsygWObp11EB9DSp2uSpQclSlq_L-GO0UVu8oeOMUCTVzvP1MVgs7nZmX0raOQXnmpolZqO-iVONVKEGMloLpXsLt1GsWq_5HAaZ1cgucUBXAA_7abrEH-QL0rYT8PV6fOp61OQinRbrEVu_SqQU2P7DKbv4DQcaXvgUL2JM5EV6wgP7IjXza</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=d4a7YpS3y186e4ihTn8uTM6Z3NEfj-cp55rPDsOIcRtPUXJI6ckdFqhPJ_nB5OGPy44oBtpzVK0O0EgULWMGjzzP4LxhJ_kGbzju2Kvk0dbhtJuGSrl-putpO6l-S054pBCfRVc2hn4deKzu9T6bj_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=oH-UeA3g9M5V6-7QO36QhV0urs3qDI_gJmS2jcIB1oEJupGTtlo10CoEWD-dZswpl_fbdAywF9blY1XT1JoZhkRWfDq_-tItCEkEHM63xqTAPcN6G73HnBn2s9fFoaqXXFBNEsEKvEieEYODYvwp1GhotrEuI2vsyXc2UlXADsorjuj4hvUcf3bpTlsMWRs_cEPGkZMolNxyK3e0EX4RH_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=uylJDQMUGHQ2H2_SkSs-DVN-3WAcyTZqGbazscAz9ohSXtFTyZNV_i1qnfOIz_q5fAWggy0XigMncxkaPTtgET1GLWlFo139cq_mnUCqux10rR5oGz0FuobkEYQWrgQm46W2kXpGEJhXSsqFrm7jbq</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=7gfz4omufBrIKkqp0q66ppz_KBljvnPJBObkxNCFNrlmqLopa5fhkjusIkV7cE1G</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=DmwbjtYsY-Dthe2D-fOk-GDjl_CWR59RZz00TwpmWwLuXpGp7u_biAHbkbz6Ivu7</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=zuPIesjnAT90cVHPpadEzNN1JeY3QhHDS1AKDnQ_zpwBbmdHfxaAjy6PVTYYX8Tg3tL_aLajd6uoGYR6SSO-REEqntojsBq-VdjcuLy4mw6p-CcXEmNIjd8_isxXCCcrBlfiElH0ep9YjIAxjsJ7Ap-YGTZwb3SqskCRHVegNtqUgoBFGxzjlxt_459yg6S2pJkCu3o29Eii8RKav---Pa</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=G5Rc-oOwthr-zDc2ZfM5a1UrNzGY4p-dH1bG5AZ3tkXELKQwRXCTN9-apfrMad7dvP32nxoW322zL6Xbg2PDACmX4gQYXljHbIIX-2O4BfxFaThHFuCC_Vu6rK8OqZ7stSbWt8I1_8B3M_R4ttmtbK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=DOwuna_Sbd-BuZ9AfEeR9N6kYVsDGhNCevBBpXA-XVipBzzZjbSOFGyqgtbXUn67pUA-aC8KyHhAN_n6gIRP7FEjL3OPHzkq9uPjDhoKUDxDTcqf1RAYanzbSAg1lbzx5jvAWHtV98YNd4JQA4q8lt3WQfoMaqHFQmFtlKQXoYttD-1o2OILi961372Ho4u4</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=eYd4DYuCHEhs9QuQI4Y7BTObU8lBxWYE8q9mDFBWQsvHsa8GfeQP78GSUU4RA86u05e6EQ114pNKX5AkDnGFthSmTTM3loy_AwLr8zipMYFd9zjn56qkaDfX1YuiRU62</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=Bt5iAjX7dgnCtwBAJzl2Yek-sDv7zgEK5oslHc9gRgPTuOtvDHvygUav4YIeNLRlFR9l_1-Vg1njQ8YDiKSyF9ASG6K6r8ZLm1KCYVhWoEh82In042BTi4JwE7SFz8Qnb14PzNCdarvtqXN6reEdrUNpg2bkrwKgcZuEeMUSTQXHF8X3yuld1vEAr0VgL8xHsJVi6Ud-xKwFE02tPSY95K</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=9Fu9Vopxd1dIc2P_m5dtf2Ul435O-qbI09e2yUY7P-OQZNiCBqP7Uspea9BeFr-_yEsVAFfP-EwyrHCo-td4QJ_GTFMBNOG93Ph__lBrq1F41ASe6FWJ-BYHtnuMme7L</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=AMNT2vf6CE_4IqDoqUbnJT52PiUc9R_-kSt-pRyaUQ3eXmpdrxp0J5zrzsA_7_VTIhcsE-EClg5lLZtWwJWJ3GmVhzsUPArEbpAsT1VabLaW6QzBC8CJuuU-Ly6Uz7iL</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=SjPW6-riZxLdO-IVrqHGv7lj8nYG3cfPElXq6KTY3DvWRV18TL1Nb0r4HK-2J_MOEMR7Lrk5r726CFQHEpLODwxJQz7ua6776_vrT6lP7680IaCGUNjjxKwD7Zq_YBgaQgvkbG6x9Ufm5KC5aVUUgO6lfcQ6Gf2oDTJOH2O_-pNsYq8BkbWygvqDv6usBN-E</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=1zlVhev6D-jxIXD2zrlBO1hbZHWG_VFVU0kdkGj5AZz7J3MyTRT-X3xMF9Pfo4VuABpN0WDTLcgbCZ4_uNl-NR6JWESflnSkbdWWjhTlCf8iWPNE96nZt3szOdyaXL4q2KGedwbjx_CoiNmBiZ5Qkg3corklc0sqvaOZyxxfUfvf38SStC5pmXCbKwVSgqsX9kDFRX_NzkmaLTokrK1Ti_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=UJlNndC2vmmQQzOamTBbInlS897WjNcLUseJ4laqQWswISymp3HQE3bP0e4VlGUo0Gmfm3mGej-_cmWvPl4NweLzsaXQuQRzniEsl1brkutiUWmaqDobBjBUw6kVa1vzc5aWigAQn7f44mkV9qrNKN6rhij1IQvkXmjRdOPaAQcx8b19Wu-uEtLbtud06Oop2hQjhjDqaABHljJjLjQwe_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=XaT56hS92wU-SeLdZsqCmIfN53rGl-wQy3gjSs0XGvVgkDCHhsVkBSlGgILZZv62sYli0hok3cRS0aimBn4_EW3KYZliia4GAdaJ9_9PCvm8Tj0vOV_SqXahNT94kuCShLRL-TpLZl6Vpk_rFg2LaAUK7XiSr2bqHYVIdtUOrUu6nXJuTyI8IklqR-6Y1QmjL71-dDuJ0KtGDrc4SF5xU_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=WaT0WSnlCA40JyJCyNw2NEZpY0sTSC1i0k3Kl8pjuI1FZHACuandJuq9folfVEe_gm7_ABOvwvyPvoFjpMiE-3x-eHSGu8cXG8Wu8QmGnqQTXMTHY9PGczwVFKdrW0ij0A23SueT_god7uIKhIfHHKBSfIZj1FEhvwxmEnYLmnwFDMep_RDbC4PrMas5v-cOPheO1daXN0sm2n2xHVmjL_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=MI5CL0gys3lThF4YpiLLbGnWdFUN05bW7u498Cef5R8qg4DArsoayC-Cfm-46AK4-9am1FjlQmF29VJPzlRTUgce0Ile4adWRLV3BEjWVB-lrg73Xpms_7iKJk4wOtkDtiNOYHAjbiwXPR0KpNZYDq</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=xnbv81qv96vk83kJElOWjsxubofSSW10owSIRPglryEEpcNZYuCyhwqP_o_EwV4YJL5Bixv3nXCK1eB53NfJt9olJ_srVNsq9h7LYmDzd9n0ztufu7X-rjj361vaz9udaHI8PLCvzTjknyVoS58lCqLJFUo05Ea8HgftK9uRIDGi4IpiuVhfeaR3Hkwj6K3mRFl5SfmwCajhRA5jZH9gpq</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=3S6b5PLpUeao9l-os7Ats0auMdT9-fWjtJEYTZLjZvm5UJ2CBf20Bu_cvFVRcLPdRJWgGQOR6wuporj39I5-ZNTKEiig9QxOoseE-Il9hHXkxTZsZGE6LbJkXAVyEa-anvLUBAx3HIZqOO51hZw7CK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=zBn2osDCF6A6OGltHdAhBaDniFTD-wla2EMvLhwWJ4QDvdsyhDkCzc4rwVzSoGua</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=8RgQySyR5qFVJvyZAs8wpNuiIpSoytC87ciRRXFIQMM7mYCMLMHwpGs-kuE5ybeH</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=031HZKy7vJtAWv_v-hgtZX5RMMh5YtO4d4dvldv-SvLiMAnj-Em0N01HE-7S3h36tYSjuVrTXodSrfCadsNIHxdcih4AR9GnwkIhAsF6APBHbHBqypE2m1skqv8mY_1_Re-fCD0XoiElFsTbv80AAzc0CuoyRINWQEW7rtNBgKa0r2NvXlq3q3EiGQHQ0A2c1efYjmZT_QipVPlEI8d0pa</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=6YZYPRdE7rZW5vrdR_TBQz_cJH69IbpZ41FDZXcEaoJOa_-ys7ubUe0BAjzACBAk0AE0Ma197_Gnv_1I4mrPP7Mvt8FnuIXkph1_WZ1enUSImY3YcMngMiBKqx_9oHrH6D39tT4y5YInIgqVRpWS0K</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=ULTVmjcSUzV1v8tLGpQTpjroxoWuQ04bw7O8nAHkfNYIfmppq1rX3cnn0MlS94Tc9_jjP5L37ZLgZ5iO6tDL2BcD0It6idMsjNnVib3qtaMIApHdCXlQR6jD62qBlIYu0jM0NBNs4BXdNmRCKkc3i2mw-80Mstm0C6GVnvC-MJTHgrjVlPM_4CruEpIWOltk</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=yv2lxFocA6bM1c6JTBcBXWCKtDLBmVVou1m7YazWal0cZSwDpFO3-BWVhM2N0yY-E5nQZJrfeqLKTo_DzOuTk_FWSKZGTlQ8nbCQHRMPnEO4EH20BHhk8o0WDZSkGCQp</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=KHyS4NuMMgwdSVc2aGn9lqIUD25sGTc61bqeKKR5jSybvR6_7JPtzzoPgAjoP_TM-vP5FsPzVYlbI7iFLk7VE53DJoB1cI50txATRnFovHfcO55UVq2ZVNv8v3UKUgitEk9Uy8Vdej_7SbPTVOX1InMxakTqkh6Fe-nbP5zms8TMy_-MRXF9Ze4NRBOLyceZdOKVKarS8SlX78wYbuZ1bK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=NllL48w3klLuFp1z9IfE0dwPxYaZYAL8D5lVHiyPATCoKNa9Om7egrkwdykRIh2qOt5Wyk3AHW9yd7-olPQcM0jAwkZfL_LO4YSp-ffteXQfhHkrE9Oxnr1OJhgjQMUw</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=xGUTDngc9LWc_xIc_CaoLFJ2FH4xIUwX9NVKIi34CAXiMPNMyfTXTdwIwGxbXJoHGYmRUDils10aC9LS8BDw2yrTzMU3qQHHusxQPio5E1IQg2p-75nd3u21somBh0Sn</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=QELqnCO7cS77lbTx-3mZQB5ZzHwyMAaA16I0bN5wbhFVaAZL3jed6CUnsxFV1b98ZDKJhkyNF1DMv9sUwgbsUa_so-P8e8AityyP835k51vyWJoQMoARH77imk_9J3CTj5vGuPA7zG1iHtSTbx3IwY_TyGfURJWFozc3Km0EmeFPz3696Z0CCQ_WEe0-4cnF</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=psMOn4piW4bUkJG1oRN56fiegucOBIT5lhv8aYlj0dMimL9yHHxurxv-gIlnj3sMcbYdaQl0f-gfDJ0uiujvd0nZEMPmXuTSro_TP9iqEqL9Wb3oJS44RfC8N9N-zc53qY5hlvIFRGO3k8bpG8D9z9k7vbfFNSAs2jxo9QhWwlCCw7iSR43Doz-IdofApE0M9SBrWETAbrrhvG7Soj8fAK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=FOlLWaS5j7Aw4A8lvFgntXxfZPIGQuiis4tVnRCE1y9hPOdXEQG8MvrewMIcpmgH10hVZxChHgrfo7lctw-iOJuI5paudXQXLeW9T3u2UaPn85tqVNRS8_JLyuwBsIiwCH0Yaszzj5p_0naw80Ydw2PMzn1GXPuyVOG6oqvoCKAJ53oBWBUmvmxo9HNhAH6R5BNKCtfAS3GYYtW72Era6a</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=1F8wbFEds-kZfTOLK1Cv-TJAYO3c_PKWmRPgxMbmMvFX53DZZ3vAWFsAtFQOQj610nLTVByctN2Ly3FUspLOaE8nGYjods_y5buWMqrLM_Q9CCMrEgYmosYoHk_lG5_8Ss-Lx8HJcSmHg4EiINbVPRWOi25Cm7xwEQMEyOZtMnchp-KSfZZJ3agq5CRlJKKiOpxoq7275sjdXetjDtL6Wq</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=JSXIjQLzh6Lg3_2xz-oBl0V6l89xbP59YX6XGPuQtqEjcUYTciKp-zOLXj7zveOu-Pu4DdrrOaa-Cwobvx9_JGmAJIHQyhjKqdOA1d0YSh4aKSESk8aKYwmb27AzMj8CqT1tfy_Ipw6TpZbYIrBFHUTsvmh2ljZ0OEsLDoNlA_B4Eq1pFk4P-UqyHaquulu_ZsWtvtIns_qrSpOzIXwQqa</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=uU5uVzRyecCef4WSL_aPZt-LDhBeb6cwE1jazMz8t2ji2vgifulB5UTXyKKMymHfTiJ0tqXEvOgjUQkvLUpvB1yz_cZ58pgswJSCASoGuNgpaGCfCV9c3eLL5B0_XNkSIXTKOLpmW-O457ssyMB9Wa</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=eecgjf1im6a-Ookn8RXw1aj4AWBhg7YQKm4V-eMZgKj-43UesCOpmcsUJxs8-ftsRYRsG5W-desltxrXhWhysQ771TYGqQTqWme_5kjsd0X-Q-rOzuM9MdBUdLtSD6dqJhNoRqm10zdq9qx39Nk8Yt7YPAfqqxX74_jXIGEyEQtjDHr9AtFzb2oA9gbok9Q3BqZOwsIfNYFR8KKxF8AfnK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=VWkAj2Uzwx7ByouBgmNiVNqjKbFCkfPQUrBMqhMNQlQNCcx4A6MgkvSa3Wp7DZ0_bc9QwH9ppKn_Sx_mJvHHQPWeoMqiHeAien1LLwX7CiDx5Tme-Eak5236n5YBVb_1Jjc5jRBBx_Iv4bYpioEF8K</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=gvo8M70LkfQk7t7lra5WSYLHQal_zEkPSEt0lWupbpqgz2BSIu8xOkJXz0YcsjV9</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=yHPdS4b-qXfgx_lNp2UJkMBY5OAt8J7RbY9e0Hbvjf0gCiOMADCDiCMNAVEFTxkM</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=nZ4pZoj53aZmInjl0njUpIp9FN2bq23wx2V9nLR4aRUb6AjqRgfbkig6T07z--yFm1OVdOxnA73bmj5lRlDten4gEZFFVj3I5jH2jFzwcgevUoFYc2EHgT3o0mH78tcYUhwg7uhpgGZy022ikAHRsUYu3uK685eTrXOtIgGHYIMAzmjwnu42tQSVUpcXbKCVVZ6UFTU9kZ_nbFCzqX9qja</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=iD2v2TIG89MkYgWmVof11XtAWWlhQZwTB52t0K1s9ynDjScGLBJ18ANo6E6uqZC_tSuQWt4sHACwwbCJpqErhMGewGI9uKV0_8h4v3X3elWIhaCgiXOP-ZTFYUPYEuMJeefPrpaG5bTQV9LffXihvK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=XyyW6qeBbKT-Ue7gk_gu8baZhCkp381VoK-GzPzfM9Q4xbORXWrXLxmnMAMGtvzZ9DnHEszx4kaZLeUVjaUOg3QpY3XLPmVn9EMXvgjDJlEw2tD6q_xlVx8-VwU2zlZ7ITrPM0_RAvqqaSCCgCHPG6xILIrGoDmmMchtxHJeG0-rrft0qm7008aZmC8k1Pbi</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=n8tWa_of9IH2DlRlE0UlitTHot5iKS7X8O9dINVKY4Sgx2E03yOWECqfU_ZQ3tJr_-SudXurb-79l9ZUekACicvODhYHwtURBEe3hhFH7SpjgH1zx9x01u0fwg1SDcL0</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=y10HujubcexxCSBP4hRscoemwO5b-P_kUIy_xo4HaHXE0Db-LiBYziP3TLCe7KG4pDcjDjKydn71YkQizREPQIfdk5EkdQ22gRPOB3ms9t7lAHuAw606nXbRIrDyDA76wDMYlQA2wN_Y-E4zN1q_-0JvIFDVlZGNZhvVaX-meJ7QWK8YALRLiv2OiUyTp5Yvn0yRavfDrfmBCK9TMJXppK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=h6nM5rwOMxatGi9pT7E6Bo2L8U_ymO5KWR3ATPnptlwEkYQrJcyhjvH_S6GR0BFeNyozqcS1WLsPjUmbhLwETmu2KtknxuIxWYbDY7HgRsNbrtPggVCsrVDuobbQeoSV</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=8ZRXUvx9Uvo8BbVxjBHo2cFHH0i3uzasm8U_JrO_koAKNeseACs6DBh3bTvY4nhXtFYvGNS_l60lRrlNze6Enm7fxOr3QQ5_2a3ZoSUIuDVYBM3aKSjEIS4gXBcQ5Jok</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=R4YdU5HTj67XBvoewK_Mhb9m2KSNx4aW2Vww81ads0R24V7Sr8wiiIHQsKyHX437zrZsfE-EZKw_EWB44y5zI85d20KOMIIh4498PJXIXSRK1P47rgwuiW6uYpzWPl_ECAvf61iunXQdusTTlE_EmhobS8nnOWg3EtG6rTnc1V7gYMk7906T08dfJQZ7l3Qr</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=KZf4iSaOJtX5a2tlDabfyguoqz1sJ_Ul_O0N4pApqDAWCexxXCdkaR11haEumCQIFwwbuQ1O9sCu2BqbYsVn9YpsGgKU-K2djV0UEoI5DNyaw8LLT9j3G3z5ye9gNvnUk696PRtAS69miHHvWzetl6PmPJLGBYn9QvjW9HAjqeIhYU1VDFoCzhxTbl4ktgldo-GvO7PxNC7VwPkArEngK_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=hO3oZsvhkU_UmmhKt8P1luoRYc1ar-9J6O7VVz8WA2t43XUlAgKHv6_jL_bX2Ct106xEIhWfjWymG3Ie3sNIMsD50-iZKzXazPRo9FLTDM8RVh0BhR5n0deE0WyU8PH2vmWQOvgnMG-VLyLHBH4SYPNKNaQMI8lDy8VXzWJU2cU7FTSW8mB1daCOuYD2icGuceiyp4IfJCNRBh-9z-S89_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=JqUsJ5EFOHg1atuIdyZ_VSHIvvEotf5F74LwEaoU89aJ0oWUZfrRoCYUsuehmU5AVr_5eROatcwILimceKH-twCJVjES83ji0-9HkTQ_Thcv0l0fZgGEKgCC7IkBG0SMWGDFcUy6EtWlIHyT3b3nhXyuRMs90AZAKrc4EuC0twThNS8ftYfiofJw3ZWDGesO9AqIoDM7LRdcIef3cv_z2K</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=uIpu00nSSY4pucO-DNTvA-wKGWQ8chCOppRypSz9ZFdx0JKfUZ60kTNHK_ZFPq4jzSAi12XPiVAs8wBYQOsezwMgeiiuu2ncOrzU2y0GgJgXAbaslplrO0xdr3dtFJEbNvqtW-qvF9uP2ftxMLxpil9TSifkxZ0OwggF0dmAfYvRbjuEtI_O7Zxdnt_nLireR0Sspxw44tyJo-LKnxA_R_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=0pK_Lxl9Dk89H9Sm60jFuKOdkKTOdLvZG-ezOGLJAjQuspKQjBShk-3tN6SAEQFoPhC1XCxWCpHmmgThNdUqojPyYe0IH6dLd-hVYvJv4rGy8CA-0zl_hJhjM3sL1He44q8tH0do4zENjIXYTMhdWa</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=yCJbnTvo6x_ChqWPHvR8C9NkeXqXA5YTuD8pGC--c34i8IsMSZowgJqMinW6znmL8GTDZpIuDqWESztYTzWG56e6gy0ifesfJH_JWW_qWgbOxBUKk_m4h5C55Eq6B6J5kQqFbujkRFN51cIGHIXV8d2UNyjY0ssNhCkO8yWfWorLTIhiBH-1pr9CMwQAyPqvdIgFOHRrqIVsFP3E1S-VR_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=yICPwr944VQaEMe66Mn9HDT0Cr85p-2DFRXHdICa_25eM0GIOizNbCzBcyPnTjHhWDiosRPWjDESYyfuC1i5xXhTgwNtKZw2foiob9wKlDaD-4A1Wc5RRX9Hx0rCrEC4q1rYpL2wnhyGo4zXDJKAF_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=ISbekYoQ98x60OHdKfQ7ZNSrhw6pHdfdlsE6dB_x8bmkojegCc7vZgZDI2TFolJ-</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=yhXunD8-h9xfoy89ECjM81k6ziaVTUhtQYRbAy5Qfj6VhRnG-9PPWmiOV2tUxv4S</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=0kpGm6Uhvb7idS7SfrV-3ZIKEFkL_g8byFA-X54qGnbsEptE1_9NM017dwwX1Z9Ie6KAyaW39GvT4UzoVb0iyOl8nJX76wMncCkSiyX4uOSz3GdjWtjviPa3F6YdHZUfsYXiIHuXbuP2mMYLmiqSLxjTcaIuOmg9lNScZqlAG5UtQvsD8q3ORuJEYnqbN1LBmJSEN2yszlc61tPJBEJ6rq</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=H75956h-3k8IhSLdYOhO_PEALAMO-KT31NIoleJyGg11pd0qsBiDQHVuJQyWVOP6wETnJhyjUmLcJT-Fv0PiwWLp9uqZKnDgliiaBB75zDrWOd0q7QjblmQLtlaAiMbVyTlBwrpRuvg3TeDm67U8a_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=6Uv0UJ2ceAyJcYL_P0Ua9zBMhBaROld8MM3iLmHEFaTF4b37ktHx_5qS-Egiy81EK_mefTicR4xS0B-2d71yRyQ0sDOBUXf11fH3hrm30AAs7NU1vByIygfjO687x5fKGV5IqXTZNPLD3hXrFgm2FE6RO9jGZxO9yUX237Fr4LlCq1cNmOZlsi2JS0KcYgvt</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=Zeo9PcN2oRQgS0skhTCHeaWjgi_RMm-kRI83ij6j0ogQd3YtTCF-w7n0yaokzGhe77S6Jy56wS13R5Spav0B0XwlbCLHAoZRV2iieDEeRdI_ypmO9TNdhvNelKCGvxRG</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=PJIQGz68ZgOcMoeUTw7IMioheu9ydZMmjy-2_rdCXu8BXSCyudjWmdsXFg2Xl8gknONnb1SOesu-HX95w77_ToxBjKGWaTEq9w2koDopbXgTwpiq9l-jBR_nKg1cxobKMbXeRODzXvNfzrHUG_aiQoxTRDiwjDfWpOl-7IjyTsgKdufPuGjD71iqSaGEDeE2ElYON1ico7t0M1b_QPtlX_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=w6IGqPchXra4PBPn7Syx2emb8NRcNPcqR1-1lE66_RSDLGscuqIjdFk_vUvumrcrfFh_typHZCX_ZSN2ImjfxT44Nt3Yo-veMPc9soG9b3YzDiRoct1irQXluMDrFl0T</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=gLGDg-tQteY8_9L9YeSzIavQ11MwoaVZOzurf2zBLxpJyYyoqR4onKTNdns8OnqW8FpUZTWTWoVIz1IIn6ga_O5T1xn54g6tZDW9PLmlPTyJLFsxVDdmQ_kLNGyAzBuL</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=vvJxp70F41Wtd7nx1ozPq-_MIeTUFYcovDo9c4vM_BYGVSQPEH_YJZcRQ6MbMkxPFI8MgKAO_0vCdyu_I5YRFBKoQICfVVSZYSCmGdeqSmLZaxNCzNQSaPKhHeo4wXmQghIEplLqrefUGRjOxAxqKMHA5uvpnhARPixKH9r1xjxYwB9uWMDyeP-X-sHsB6ys</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=gdNxwlJqVGBcraajsHEGeaj-W7MIZ_L7kF8r7hgumhvylYDKJcQV2dun-CY8EEDeA26bgoXAWYq0aourz8IxeUUCWyqLtTCBhAFg2jvgYE8S0emPSG9CmuwmuqPckXnYSKVyQ3yO5J-Xc2xgJPAs7icMB64wbecUgby3UZ_IUDn1nXMR7dxVfoYo-iv_NnBwny9BArR24CwrSwAp2dlGb_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=eOIDLesR0jHH5qZ1FTUHVMTAZjl2Y49rgjcNUlWVPSvlSOb_xJOVZKjWPIuIV_mx1l1ePPnz28TpLL1BKZYsNq5CK4-MZVV4sIADXhx1v83oZOB6cYlt4woEKNX5Nv2FzRqcoycCnl4Tawn8WVPmotMVQ4P6EOVZJHe3ojV-xPhoFAPihlqmqAnsqvzjQgoH0_LIQpwG7wD53YhJa1yyz_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=9VpiC2nVdFM3C8DiE1Vohe0Z8v0vzpKrmQO50Fnb5AM7Ti-5jKnkvrw39--EuY46QB1zr53EY0h4ZOtxAmXKVrb_PqAA5xDETfoz_b8FbPiT4C6aQU0uO-6yLq-GICX9qcyJzGLqA1cN4hWK0oHuALzO8DReSzyuHsZ1RySXMfkHnWhlob-pNKwRBOEfMXfBamR9xSO_Ft8RiNRlRJfDr_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=-uP9WZWVuXWh1kE-SKqsJqa02o0bjIwZt4uibsjT2w3XhUjMaJQo17QgukVzOJrbyVylVi3KWFV8toDWPs8faBJ50k0PyP8JBjfneP1CpHZCjotOcfbycuPS6_SXU8lyPPG-pY6l9jbXbEonnIn5GeZb97Mz1MwqXs6h-7ggkHBywEvUS7flop2Ln_KSWcRWzTYI6uJJVXN0cZtyC2jcP_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=nyUndWaPVt-KCxt3Rg3ki6Xj_-ssfv06C4ZhqhgfgZFGkkFuLk-_N6oIoiX3nSeaHrNnADeOfbNIz3vNWL80EzvSfOOljekO61VSPlCE-_6drJVaSz5R0ZpsWjSBVzqWeUQw-hxssXk2VH1fbtGb0a</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=Gb4-ceVPpcLtlwzGR9hV3jI68dv6Vfm_DcDSHleuSswR9Qx0zGunAtRgofmk7nqcYafaAXkR49yEaO4COBjW_-VY9fZ9f7gpt51dlWF9asjkzgKwD4W-TSNfSoPWN4MBUXoNzmZbDCh7hDbGIqCVV3fhrae3RsSnhu_pRG35HJaR0TypXFQqYfYpvR5UUIcv4gIuAYd5C-fxDKSc9CyNzK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=boIDWGsa8LNL_acMLsfA8AzbM0X5_5-XpGFKZO_kYSQIT01hS53bxgwk1FfxNFEQ5PZEkDC0Ob8pCokTaMleVyXcA_2drvythQ3lryK-cd10q14iNMHx-z67HiF0y3-uty496QvPgU7zfRlKJic3y_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=ukarNWt59gBPK5foJ6JFY2bJciLtafQLRdTtsEZiS97jTSHlX_N7PF4yEVw5pJsT</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=PgCYTfgNrpCAQTPGePoPrtrnK_LpfqjAQZc3h2RQY6_-QE6FmubRflKU2IeCS-za</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=2X4WBmSSHchzDvQNsEgAIQm01Sh_KYWC3HvopqRPSbJmNeNgfdBs_ncEt7MtbOA40dSRXhRADcPWbE9meej2V7cifHG7fmBa77Tut7lCDLEtmubUw39xBEqc3uzuaDLc5vzTo4vIiJayaBIQVgTApImdSCeUT-ZnZg6ztlhGSupkd69IF50t-Iz0TJjQ_hZLdB5GFZLA0oTqXHQc88YjNa</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=1svp9d2156lMF2jJVXVk1A9JIaqxQbmlkbtOyTBBH0ZWXz_QdUJBEd2XR6m3ND1Kq8wUGkMmYiB5eplsHKhw3niTQLRtaw6NhjY5ZWwL3eKIEDIEz4eqNBEn3DVYntYb4sZFHo4788IsuJaKoT7qaK</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=cTdt5flyynWa7k6F01u4Q3DiGnsYIAckU4De96vhdJMXYuKd6ioAr32zJ9dtuIjRiS3pelE7AkUU6urNg3K_A9LDQLfG8XOTSkpltIn3o0Wcdta0rTDf541vLmYUrE0uf7slDevseM3-XtYidHXiQEjwJhuJXt3Q8h8yxlLzS41BFmOq8stZ0YK5QIH9e8Pd</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=fYpLIQUkzetUtkzVf-iSJCBC7KFwGqm_VE_vJAoIoStyf02v1WaxK1VFG4oOgp-1ZA6BGh9UaP3ILENzyA20-e-JpX5WUJkx_ntL9Ex6EH5Mde19S2ll2JrbvnYibH5I</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=SfI6aQlW-QTRoLxr4YfrGdGy6d1LLDHHEKUtAbf9PpsBPHCYUmzCva3p6OUqppJg46Puqi4a-7UUh6xGww41zoErJDJHpl-Hz0ocLP9VDb9jXDvmseZKsXfzr35cCjI0qrF0hiRjb8IOomgGE3k4cvATEisTMeWq4urUIHmKsPQaz_7DvmifphuvKB8WT4zPU84-Fu3trkhqUtIWDZuwz_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=BF80GQPGqsjt2cngKzy289jSdQhezai4U7ItnAeju4FBU3WleTAkXEBix2Y4yDUjUy76bUZdTvuHe7bDZJTbkRyXhY_ay2DU86GKn5Iw70MPuvR2Hb9-2Ab0ObpD40Xl</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=tFuq4cA--Jvwz9fva1N5SxcSidZNSd45ZO8h0lrbLDONtTqAVIbHSo7VGudb2uIw7nuQ7tvlKYVwTpA3DJDpMAD2TawZoF6AvV1VJppgTeeQ7U_rj1p-EEkarBuW-Ozk</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=pJ4NcqkfxCIWICWYmIWt2ko3zILlHV8o-w7unqNhfKz3f3Pvl1PuMS0_uPzIxIgawqiydPnHN_FD7tNDaTs8A-uQfECrj-1R7gWAPVR5l7hQWWFwby_xwQo3Wg68JGi1_LgWe1VdKZcv_AlxNVnT5gWwj9eUSE40PrLyn5UGTGgFEBkyfHHwT7y3wc5Zihsc</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=_up3HrMLk-9-vgxmwUv1RsFIKHymYkuydN9YS1DRCjFU2wFSkS-_4Sb6XK_OrVYeCwuBYdHhKG2-Dm9Zd785pRMd518GU108HXYJhjMcr8nePvq29wSzHaQ-awjujEoZ6-nwRCcHJgFbYCH1VVYike_o2CwJ0lkud86MOAX080vk10MpQC9z0aAsMcYkYqDm7PKIqwE5y20izinLWsFt6q</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=ujl7zfJ--GUFpc8xHZD44bjSS8BAm5xkhnNmWUVSrGYKgpA2T-RkgMZz35bO69VoChZktXYfuo5YMjyCw6puUFIlK7MGF6Epz0Zfi1vvy9tnfIsibIhZBu8H8BP20GGAWdDhfTsf_-L_H5CopAg-0czRW0HnPVkBLhPcjyPQrb2-GaAuc8Dkw_TEuT_jZeARM9IhVWWHbQgEokIQVayqg_</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=2lAhNCyLngkJ99njD_w5CAYcVPXRBysp-cT5uxVkkDr2fRMnVzpEWWcFludn9vLpdBHytRZ28naRSSL4sjs5qnC231da6didRqycuPhVdXlZl1i_MGDilyXtgDjCAW5FdRPHzqYK08IO0QM1FdifIIdRsiLkLbbJqNd5uToW_uyro3zKmOK1dpGnnNs3PYjvYqfiHgKvKQeTyZN658idJa</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=GO97JXMZlJ1cnDs3kqwIZneWIJVmOJEQ_eHlRxnc-EtymbH7sQ0LmLUzyDeIGdPlwKpUnsJVlTRdNDicaxSy2JyF2PLvGbf2B4WF-mSvDXN3Mrg0JIeD9PwZpxlHfdEkGY4cBVIGivUHURxoe7Rz73qjmzNnf6m7qbP2FkG2BGfS2_CwNDbXFCGH8Oo0w_M64wDjlnZB7qR5I6mP4efGFq</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=icnR6PiyK2VhoF3RdXHhGPizFJfxWxDJ-IEr7mrWuw5nG7aJ1_aimQ22fz7e5uptrGDqbJzye_mDBZA6Jwi40lqBuIcf3tVkV6IMWgeXUv5aGzwueObNmXN-r2dNJ_hJ1iyQV24Va3q4fZpNLdT1-q</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=5hfqd1QGf1Iyukvlo0oR6FtcbYl1TeLqoLryGmvwUXvkT3Klo5_dENAwbCS9g49jeNtGNZ1TF5SPEZjTZfvoYbKRSR2vJ1afYmc8nTwNIFiu7VhKaW-Agzr74ECx2zVAJNVnXvO9WCRfXNPr12HePNl4A8-4U5YQNHEiHnCGC2k3eHrq5DOaNSjWcjiss14S4ebJkTU9R4cUbhWcrp5cpa</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=0tEMngTUELuB31NEMEVXDQPNwSF9YeXvFiX_vFk09ZHAeCu8IwGe85LYbiUcxzshAOP1qIDY-K29YAxxZxzraLYbQEVkW9wtL5XT3trPfALtm8tdFbz-X36B741slW3YPVxVn1w9Hj3zoLNyLaSd9q</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=CQ6OaSU8hID93j1CDBbdEOIwv9MBMxNk3f-keLglEpA_Wj2zTkk-nf_-eXWyhmH0</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=MAFS3Wq6_04jAfnL_rHFNtM2Hu2ux1HOnDXLKuLhfgo55fqtv3EroO9uC2aVs8QB</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=on47g1yCrp8tlgm5JsfmfwwbuQgZ3KjUaYdMT3EPJNrgBdYcZkGhdIv90wwTJEFnvNSONoxjZOH_xoQiyO3mbC4ExUzGlOPnL07B4iXjPWmcu8lEb_dpvS8YdgwCN83fYbwum8x18WVTUfsVcc0UgqY-Enp-y2UIF3N2FZHB4xCL_3E6cWAZHpDXYhhyQleGfXDWlxzsS8IEp3SNOEcDha</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=A0C-VdheTfSEKoG5MQsRJCSxlf-khJz9hXYnOVp69L48S_RX7NVP7ZmzGpLxBr5u8WENW41bJRn3o-tlVasNYva3CHx_wsBwu_uwsyFLw4xqkMwcP0Mo-vLhnn42LS-X9i_SIhJd3lTRmTS82hdAva</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=QlExatMcqxFDxgZMdJhPdQ02uPNiR4S0Vqhgp9U0ffS2IWKuDw6lVdg6NdPLZ-zN5vyh8IdED3XDlJSVSzWpRJQ_Y108kQNG_X_OKpE-FhxYkE-eFtQb9Vu-hvx9RFUk-SO4QlQ5swMIKjyBZUEx7XPqVprgQoBCO_mdzqX_9qKZigTtUeThqX_uUEUa6YMa</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=n4gx62bk1Z3KrmCvmjQt7TEehgo6sN6vrG5PrPvuyE6yBq82ZTETkeUJA8_OVMDeTZtCGM4dEiF3EutP0btE2nXecMd8QWLuCdl8jNwslgFh2Xjh5k78wNntDXc80Qmk</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=T7Z8ah-HU97LeM_tm4uzA0GcNmNQROIKKTZ5hnO6fQXTCLfdFELS_vQjYYVNYWwV-PDnE-SdI6be6mlMfzPUC8bPdHz2PLvPzm0ZivTUBpm8cYwcEZDAZrIFprNtxO3YHSbG_fjiTtv6TiMo5NHbPIRbpkTCcEY_T-6vXFtSRUihc0-sdl7OuTS8sCfRCyP25BYZTHTQXvve2c1MRcsn7K</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=JVXFv7ByQVj8XPFq_FVcglgaoGsMQp7MnvzWEXVtbnaXVn3JQNNsBa1YqEN_pQcOAiFcao9v2XyECU8UsozXSQ1a0PrXJbCdo0Ib9I8pILXLc1uIDkftQZdfsbkuACPc</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=AM2R1BnD1PhOQU2Im6msXWM0MhXS3NK7D9xHUQmgb2ehArRceOZZMMIJFqbWn2oBAKsTItJNRC5RCRHtdrMO6qciEnsKhgR0cMiJqvUIbjP_aoqD1iiOdRObh5a67Hgc</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/link?url=n8CcOFQmOjCxDwLC7L_-Hn0ZX1HCgCVZaQvuKpvXR7jZQgd2p4eLJRmoGWSEc_3O9AbQZLgE5BnijU-ZKwxl9FyrjUUkUVU00UJNiZRMUzPTHrsfiAFdt5kftsJ3mRTm8D9vcBg0nha8dvpbw-vGZtA_VFzzFmgQLkCczWY5lnVM-dj1-3F_vVU_PwVG0Z8a</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,7 +1555,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H22"/>

--- a/AmazonCrawler/data/googlelistingresult.xlsx
+++ b/AmazonCrawler/data/googlelistingresult.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="212">
   <si>
     <t>B00NO8RSGO</t>
   </si>
@@ -610,6 +610,54 @@
   </si>
   <si>
     <t>http://www.baidu.com/link?url=n8CcOFQmOjCxDwLC7L_-Hn0ZX1HCgCVZaQvuKpvXR7jZQgd2p4eLJRmoGWSEc_3O9AbQZLgE5BnijU-ZKwxl9FyrjUUkUVU00UJNiZRMUzPTHrsfiAFdt5kftsJ3mRTm8D9vcBg0nha8dvpbw-vGZtA_VFzzFmgQLkCczWY5lnVM-dj1-3F_vVU_PwVG0Z8a</t>
+  </si>
+  <si>
+    <t>swim+dress</t>
+  </si>
+  <si>
+    <t>MiYang</t>
+  </si>
+  <si>
+    <t>Sponsored</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Plus-Size-Shaping-Dresses-Swimsuit/dp/B079DPWR6Z/ref=sr_1_52/136-3584457-4585967?ie=UTF8&amp;qid=1529726345&amp;sr=8-52&amp;keywords=swim+dress</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Womens-Printing-Swimwear-Stripe/dp/B01HPQQHOY/ref=sr_1_24/136-3584457-4585967?ie=UTF8&amp;qid=1529726345&amp;sr=8-24&amp;keywords=swim+dress</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Tankini-Striped-Vintage-XX-Large/dp/B0711R9KHN/ref=sr_1_18/136-3584457-4585967?ie=UTF8&amp;qid=1529726345&amp;sr=8-18&amp;keywords=swim+dress</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Plus-Size-Shaping-Dresses-Swimsuit/dp/B079DN65B2/ref=sr_1_77/147-7425408-4785211?ie=UTF8&amp;qid=1529726349&amp;sr=8-77&amp;keywords=swim+dress</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Womens-Striped-Bathing-Swimwear/dp/B0196ETN8U/ref=sr_1_51/147-7425408-4785211?ie=UTF8&amp;qid=1529726349&amp;sr=8-51&amp;keywords=swim+dress</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Womens-Printing-Swimdress-16W-18W/dp/B01MTO5KOB/ref=sr_1_104/147-7425408-4785211?ie=UTF8&amp;qid=1529726353&amp;sr=8-104&amp;keywords=swim+dress</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MiYang-Swimsuit-Skirtini-Swimdress-BlackStriped/dp/B01G8H8UUU/ref=sr_1_158/147-7425408-4785211?ie=UTF8&amp;qid=1529726357&amp;sr=8-158&amp;keywords=swim+dress</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1603,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H22"/>
@@ -1565,7 +1613,155 @@
   <cols>
     <col min="3" max="3" customWidth="true" width="8.5" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <headerFooter/>
 </worksheet>
